--- a/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\4_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED266BE-0393-48CD-8B1C-5F32296BBC2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D405A-302C-4D3A-ABA2-B2488F47A067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="750" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -166,14 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,40 +522,40 @@
       <c r="K4" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -576,7 +576,7 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,26 +592,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -780,26 +780,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -848,7 +848,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -872,7 +872,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -968,26 +968,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -1036,7 +1036,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF73B0-2B3A-4750-A315-5905C4297A71}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
@@ -1193,26 +1193,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1381,26 +1381,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1569,26 +1569,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8988C9-F52C-4F58-B137-C5CCAEBEC674}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,26 +1794,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1982,26 +1982,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -2170,26 +2170,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -2310,7 +2310,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>
@@ -2378,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EA4DFC-3DC4-4C6F-A333-4BED15F4505A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2395,26 +2395,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -2463,7 +2463,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2535,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2583,26 +2583,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -2651,7 +2651,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -2771,26 +2771,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
@@ -2813,7 +2813,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -2863,7 +2863,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2911,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +2935,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>6</v>
       </c>

--- a/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\4_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D405A-302C-4D3A-ABA2-B2488F47A067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC8D57-67A4-4F57-A23A-F248DBFAEBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="750" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\4_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC8D57-67A4-4F57-A23A-F248DBFAEBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D951F6-E4E2-4BA5-BDE6-70C8B170E214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="750" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
+++ b/4_DrawFigure/Fig1b_Output/TransferMatrix_EnsembleMean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMIP6\Program\4_DrawFigure\Fig1b_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D951F6-E4E2-4BA5-BDE6-70C8B170E214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFDE52-297B-4732-AF2D-0DF15924233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="750" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="870" windowWidth="18000" windowHeight="9360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C28" sqref="C28:H33"/>
     </sheetView>
@@ -641,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>97.611930847167969</v>
+        <v>96.898941040039063</v>
       </c>
       <c r="D4" s="2">
-        <v>2.2341887950897217</v>
+        <v>2.9116630554199219</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>9.3143545091152191E-2</v>
+        <v>0.18463090062141418</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -665,13 +665,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>10.48145580291748</v>
+        <v>8.6412811279296875</v>
       </c>
       <c r="D5" s="2">
-        <v>72.670997619628906</v>
+        <v>71.815711975097656</v>
       </c>
       <c r="E5" s="2">
-        <v>16.847558975219727</v>
+        <v>19.542995452880859</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>2.9496335983276367</v>
+        <v>4.1681060791015625</v>
       </c>
       <c r="E6" s="2">
-        <v>94.121879577636719</v>
+        <v>92.109886169433594</v>
       </c>
       <c r="F6" s="2">
-        <v>2.9284982681274414</v>
+        <v>3.7170443534851074</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>2.2610702514648438</v>
+        <v>3.371530294418335</v>
       </c>
       <c r="F7" s="2">
-        <v>97.590644836425781</v>
+        <v>95.320297241210938</v>
       </c>
       <c r="G7" s="2">
-        <v>0.14828622341156006</v>
+        <v>1.3081818819046021</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>23.642171859741211</v>
+        <v>4.2439947128295898</v>
       </c>
       <c r="G8" s="2">
-        <v>76.357826232910156</v>
+        <v>95.755958557128906</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>21.467498779296875</v>
+        <v>18.657527923583984</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>3.4045420587062836E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>4.5789644122123718E-2</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>78.519790649414063</v>
+        <v>81.26153564453125</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>98.230117797851563</v>
+        <v>97.326072692871094</v>
       </c>
       <c r="D16" s="1">
-        <v>1.6362626552581787</v>
+        <v>2.3581154346466064</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>0.1336170881986618</v>
+        <v>0.31580471992492676</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>12.203676223754883</v>
+        <v>10.529460906982422</v>
       </c>
       <c r="D17" s="1">
-        <v>74.256721496582031</v>
+        <v>72.932205200195313</v>
       </c>
       <c r="E17" s="1">
-        <v>13.513088226318359</v>
+        <v>16.506614685058594</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2.653031051158905E-2</v>
+        <v>3.1705457717180252E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>3.636911153793335</v>
+        <v>4.9492402076721191</v>
       </c>
       <c r="E18" s="1">
-        <v>94.176658630371094</v>
+        <v>91.9810791015625</v>
       </c>
       <c r="F18" s="1">
-        <v>2.1864392757415771</v>
+        <v>3.069605827331543</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>3.1866405010223389</v>
+        <v>4.0510544776916504</v>
       </c>
       <c r="F19" s="1">
-        <v>96.702217102050781</v>
+        <v>94.884490966796875</v>
       </c>
       <c r="G19" s="1">
-        <v>0.11115721613168716</v>
+        <v>1.0644633769989014</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>25.658145904541016</v>
+        <v>4.8582100868225098</v>
       </c>
       <c r="G20" s="1">
-        <v>74.341850280761719</v>
+        <v>95.141738891601563</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>18.345100402832031</v>
+        <v>15.828591346740723</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1.096882950514555E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.3893425017595291E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>81.654953002929688</v>
+        <v>84.12640380859375</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,13 +1017,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>97.833511352539063</v>
+        <v>97.343948364257813</v>
       </c>
       <c r="D28" s="1">
-        <v>2.127194881439209</v>
+        <v>2.5567388534545898</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>5.0298017449676991E-3</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>3.9324421435594559E-2</v>
+        <v>9.4250015914440155E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,13 +1041,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>12.531147956848145</v>
+        <v>12.116887092590332</v>
       </c>
       <c r="D29" s="1">
-        <v>73.7564697265625</v>
+        <v>71.787841796875</v>
       </c>
       <c r="E29" s="1">
-        <v>13.712376594543457</v>
+        <v>16.081459045410156</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1.3805548660457134E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>3.8113956451416016</v>
+        <v>5.340754508972168</v>
       </c>
       <c r="E30" s="1">
-        <v>94.468955993652344</v>
+        <v>91.8419189453125</v>
       </c>
       <c r="F30" s="1">
-        <v>1.7196472883224487</v>
+        <v>2.8172225952148438</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>2.3852651119232178</v>
+        <v>4.0927486419677734</v>
       </c>
       <c r="F31" s="1">
-        <v>97.614738464355469</v>
+        <v>95.094566345214844</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>0.8126910924911499</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>27.561313629150391</v>
+        <v>5.2724208831787109</v>
       </c>
       <c r="G32" s="1">
-        <v>72.438690185546875</v>
+        <v>94.727516174316406</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>21.453062057495117</v>
+        <v>18.584320068359375</v>
       </c>
       <c r="D33" s="1">
-        <v>0.48644831776618958</v>
+        <v>0.33012270927429199</v>
       </c>
       <c r="E33" s="1">
-        <v>0.73485440015792847</v>
+        <v>0.51710635423660278</v>
       </c>
       <c r="F33" s="1">
-        <v>5.9661753475666046E-2</v>
+        <v>6.327105313539505E-2</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>77.265922546386719</v>
+        <v>80.505149841308594</v>
       </c>
     </row>
   </sheetData>
@@ -1242,13 +1242,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>96.477424621582031</v>
+        <v>95.459030151367188</v>
       </c>
       <c r="D4" s="2">
-        <v>3.4105134010314941</v>
+        <v>4.4397587776184082</v>
       </c>
       <c r="E4" s="2">
-        <v>2.3521613329648972E-2</v>
+        <v>2.8612438589334488E-2</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2.7785517275333405E-2</v>
+        <v>6.7797236144542694E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,13 +1266,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>11.525162696838379</v>
+        <v>10.076200485229492</v>
       </c>
       <c r="D5" s="2">
-        <v>63.356227874755859</v>
+        <v>60.270565032958984</v>
       </c>
       <c r="E5" s="2">
-        <v>25.118631362915039</v>
+        <v>29.653215408325195</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.2603532075881958</v>
+        <v>0.17622511088848114</v>
       </c>
       <c r="D6" s="2">
-        <v>3.0415003299713135</v>
+        <v>4.4470367431640625</v>
       </c>
       <c r="E6" s="2">
-        <v>91.968719482421875</v>
+        <v>89.435287475585938</v>
       </c>
       <c r="F6" s="2">
-        <v>4.7294435501098633</v>
+        <v>5.936436653137207</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>2.9771363735198975</v>
+        <v>4.7776970863342285</v>
       </c>
       <c r="F7" s="2">
-        <v>96.727828979492188</v>
+        <v>93.268081665039063</v>
       </c>
       <c r="G7" s="2">
-        <v>0.29503896832466125</v>
+        <v>1.9542214870452881</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>45.371147155761719</v>
+        <v>7.9133672714233398</v>
       </c>
       <c r="G8" s="2">
-        <v>54.628837585449219</v>
+        <v>92.086601257324219</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1362,13 +1362,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>26.967060089111328</v>
+        <v>23.634014129638672</v>
       </c>
       <c r="D9" s="2">
-        <v>1.9775081425905228E-2</v>
+        <v>9.095059335231781E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>4.5789644122123718E-2</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>73.000411987304688</v>
+        <v>76.228157043457031</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1430,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>97.776588439941406</v>
+        <v>96.33770751953125</v>
       </c>
       <c r="D16" s="1">
-        <v>2.1579158306121826</v>
+        <v>3.4042789936065674</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>4.2628860101103783E-3</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>6.5505042672157288E-2</v>
+        <v>0.25373125076293945</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1454,13 +1454,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>14.568130493164063</v>
+        <v>13.29749870300293</v>
       </c>
       <c r="D17" s="1">
-        <v>69.528114318847656</v>
+        <v>64.263511657714844</v>
       </c>
       <c r="E17" s="1">
-        <v>15.881623268127441</v>
+        <v>22.423908233642578</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2.2152695804834366E-2</v>
+        <v>1.5062914229929447E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1478,16 +1478,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>0.32784390449523926</v>
+        <v>0.20685957372188568</v>
       </c>
       <c r="D18" s="1">
-        <v>4.3240914344787598</v>
+        <v>6.0420279502868652</v>
       </c>
       <c r="E18" s="1">
-        <v>91.901145935058594</v>
+        <v>89.230636596679688</v>
       </c>
       <c r="F18" s="1">
-        <v>3.4469234943389893</v>
+        <v>4.5203781127929688</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>4.4941368103027344</v>
+        <v>5.8913545608520508</v>
       </c>
       <c r="F19" s="1">
-        <v>95.320877075195313</v>
+        <v>92.560447692871094</v>
       </c>
       <c r="G19" s="1">
-        <v>0.18500128388404846</v>
+        <v>1.5481984615325928</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>51.867919921875</v>
+        <v>9.5836477279663086</v>
       </c>
       <c r="G20" s="1">
-        <v>48.132072448730469</v>
+        <v>90.416374206542969</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>21.414443969726563</v>
+        <v>18.300256729125977</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>3.4138493239879608E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.3893425017595291E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>78.585609436035156</v>
+        <v>81.631576538085938</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1618,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>97.610313415527344</v>
+        <v>96.630233764648438</v>
       </c>
       <c r="D28" s="1">
-        <v>2.3801426887512207</v>
+        <v>3.2533202171325684</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2.4015786126255989E-2</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>9.5773478969931602E-3</v>
+        <v>9.238848090171814E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1642,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>15.2576904296875</v>
+        <v>17.386314392089844</v>
       </c>
       <c r="D29" s="1">
-        <v>70.88336181640625</v>
+        <v>63.094783782958984</v>
       </c>
       <c r="E29" s="1">
-        <v>13.858936309814453</v>
+        <v>19.493022918701172</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>2.5875665247440338E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1666,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>0.54914605617523193</v>
+        <v>0.33401331305503845</v>
       </c>
       <c r="D30" s="1">
-        <v>4.4008522033691406</v>
+        <v>6.9452605247497559</v>
       </c>
       <c r="E30" s="1">
-        <v>92.988510131835938</v>
+        <v>89.170570373535156</v>
       </c>
       <c r="F30" s="1">
-        <v>2.0614852905273438</v>
+        <v>3.5500402450561523</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>4.0038270950317383</v>
+        <v>6.6452155113220215</v>
       </c>
       <c r="F31" s="1">
-        <v>95.920692443847656</v>
+        <v>92.193931579589844</v>
       </c>
       <c r="G31" s="1">
-        <v>7.5478069484233856E-2</v>
+        <v>1.1608555316925049</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>56.028038024902344</v>
+        <v>11.040182113647461</v>
       </c>
       <c r="G32" s="1">
-        <v>43.971961975097656</v>
+        <v>88.959800720214844</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1738,22 +1738,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>22.984909057617188</v>
+        <v>19.786930084228516</v>
       </c>
       <c r="D33" s="1">
-        <v>0.42336845397949219</v>
+        <v>0.27845326066017151</v>
       </c>
       <c r="E33" s="1">
-        <v>0.85555112361907959</v>
+        <v>0.58812636137008667</v>
       </c>
       <c r="F33" s="1">
-        <v>2.9896385967731476E-2</v>
+        <v>4.3440915644168854E-2</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>75.706222534179688</v>
+        <v>79.303031921386719</v>
       </c>
     </row>
   </sheetData>
@@ -1843,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>95.109779357910156</v>
+        <v>93.589309692382813</v>
       </c>
       <c r="D4" s="2">
-        <v>4.6489028930664063</v>
+        <v>5.8573226928710938</v>
       </c>
       <c r="E4" s="2">
-        <v>0.15372498333454132</v>
+        <v>0.5058559775352478</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2.6849523186683655E-2</v>
+        <v>4.2720172554254532E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1867,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>14.552762985229492</v>
+        <v>18.737697601318359</v>
       </c>
       <c r="D5" s="2">
-        <v>52.592433929443359</v>
+        <v>41.9296875</v>
       </c>
       <c r="E5" s="2">
-        <v>32.854816436767578</v>
+        <v>39.332607269287109</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1.3691252470016479</v>
+        <v>1.487420916557312</v>
       </c>
       <c r="D6" s="2">
-        <v>2.8746616840362549</v>
+        <v>7.1639308929443359</v>
       </c>
       <c r="E6" s="2">
-        <v>89.650535583496094</v>
+        <v>82.582756042480469</v>
       </c>
       <c r="F6" s="2">
-        <v>6.105684757232666</v>
+        <v>8.7608919143676758</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>3.685460239648819E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>4.7251758575439453</v>
+        <v>8.4910726547241211</v>
       </c>
       <c r="F7" s="2">
-        <v>94.866462707519531</v>
+        <v>88.824417114257813</v>
       </c>
       <c r="G7" s="2">
-        <v>0.40837955474853516</v>
+        <v>2.647697925567627</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>56.423717498779297</v>
+        <v>13.531795501708984</v>
       </c>
       <c r="G8" s="2">
-        <v>43.576278686523438</v>
+        <v>86.46832275390625</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1963,13 +1963,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>34.264354705810547</v>
+        <v>29.865678787231445</v>
       </c>
       <c r="D9" s="2">
-        <v>2.9162360355257988E-2</v>
+        <v>0.11230669915676117</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>6.84317946434021E-2</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>65.693748474121094</v>
+        <v>69.952484130859375</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>96.826034545898438</v>
+        <v>94.928367614746094</v>
       </c>
       <c r="D16" s="1">
-        <v>3.0519814491271973</v>
+        <v>4.5205917358398438</v>
       </c>
       <c r="E16" s="1">
-        <v>7.2314813733100891E-2</v>
+        <v>0.26857760548591614</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>4.9671508371829987E-2</v>
+        <v>0.28241601586341858</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2055,13 +2055,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>20.28062629699707</v>
+        <v>24.315305709838867</v>
       </c>
       <c r="D17" s="1">
-        <v>58.673065185546875</v>
+        <v>45.709312438964844</v>
       </c>
       <c r="E17" s="1">
-        <v>21.019792556762695</v>
+        <v>29.943668365478516</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>2.653031051158905E-2</v>
+        <v>3.1705457717180252E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2079,16 +2079,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1.7829629182815552</v>
+        <v>2.0927364826202393</v>
       </c>
       <c r="D18" s="1">
-        <v>4.755591869354248</v>
+        <v>8.8254880905151367</v>
       </c>
       <c r="E18" s="1">
-        <v>89.551719665527344</v>
+        <v>82.507011413574219</v>
       </c>
       <c r="F18" s="1">
-        <v>3.9097177982330322</v>
+        <v>6.5746321678161621</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>3.7009958177804947E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>7.3957948684692383</v>
+        <v>10.618667602539063</v>
       </c>
       <c r="F19" s="1">
-        <v>92.419204711914063</v>
+        <v>87.263168334960938</v>
       </c>
       <c r="G19" s="1">
-        <v>0.18500131368637085</v>
+        <v>2.0811808109283447</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>63.465343475341797</v>
+        <v>15.462981224060059</v>
       </c>
       <c r="G20" s="1">
-        <v>36.534645080566406</v>
+        <v>84.537101745605469</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>24.177446365356445</v>
+        <v>20.429224014282227</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>7.9723484814167023E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.3893425017595291E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>75.822578430175781</v>
+        <v>79.457000732421875</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2219,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>97.063377380371094</v>
+        <v>95.618995666503906</v>
       </c>
       <c r="D28" s="1">
-        <v>2.8813707828521729</v>
+        <v>4.0784177780151367</v>
       </c>
       <c r="E28" s="1">
-        <v>5.5286172777414322E-2</v>
+        <v>0.18690811097621918</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.1156209409236908</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2243,13 +2243,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>20.444833755493164</v>
+        <v>28.758806228637695</v>
       </c>
       <c r="D29" s="1">
-        <v>64.0323486328125</v>
+        <v>47.523883819580078</v>
       </c>
       <c r="E29" s="1">
-        <v>15.522818565368652</v>
+        <v>23.643497467041016</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>7.380291074514389E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2267,16 +2267,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>2.8272953033447266</v>
+        <v>3.156259298324585</v>
       </c>
       <c r="D30" s="1">
-        <v>5.1016783714294434</v>
+        <v>10.090680122375488</v>
       </c>
       <c r="E30" s="1">
-        <v>89.572929382324219</v>
+        <v>81.685997009277344</v>
       </c>
       <c r="F30" s="1">
-        <v>2.4981064796447754</v>
+        <v>5.0669326782226563</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1.8761280924081802E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>3.7467405200004578E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>8.7539215087890625</v>
+        <v>12.761558532714844</v>
       </c>
       <c r="F31" s="1">
-        <v>91.208114624023438</v>
+        <v>85.626174926757813</v>
       </c>
       <c r="G31" s="1">
-        <v>3.7946835160255432E-2</v>
+        <v>1.5560331344604492</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>70.716300964355469</v>
+        <v>18.634922027587891</v>
       </c>
       <c r="G32" s="1">
-        <v>29.283697128295898</v>
+        <v>81.365066528320313</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2339,22 +2339,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>25.177883148193359</v>
+        <v>21.220125198364258</v>
       </c>
       <c r="D33" s="1">
-        <v>0.37551075220108032</v>
+        <v>0.25418779253959656</v>
       </c>
       <c r="E33" s="1">
-        <v>0.87060332298278809</v>
+        <v>0.59219062328338623</v>
       </c>
       <c r="F33" s="1">
-        <v>2.9896385967731476E-2</v>
+        <v>4.3440915644168854E-2</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>73.546012878417969</v>
+        <v>77.890037536621094</v>
       </c>
     </row>
   </sheetData>
@@ -2444,13 +2444,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>93.605186462402344</v>
+        <v>91.8221435546875</v>
       </c>
       <c r="D4" s="2">
-        <v>6.009406566619873</v>
+        <v>7.0719680786132813</v>
       </c>
       <c r="E4" s="2">
-        <v>0.31341823935508728</v>
+        <v>1.0941872596740723</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1.1268096975982189E-2</v>
+        <v>6.8771094083786011E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2468,13 +2468,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>13.780476570129395</v>
+        <v>17.66691780090332</v>
       </c>
       <c r="D5" s="2">
-        <v>43.524894714355469</v>
+        <v>36.327068328857422</v>
       </c>
       <c r="E5" s="2">
-        <v>42.69464111328125</v>
+        <v>46.006011962890625</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2492,16 +2492,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>1.6562408208847046</v>
+        <v>1.8711352348327637</v>
       </c>
       <c r="D6" s="2">
-        <v>2.8812649250030518</v>
+        <v>7.3679485321044922</v>
       </c>
       <c r="E6" s="2">
-        <v>88.163352966308594</v>
+        <v>80.011360168457031</v>
       </c>
       <c r="F6" s="2">
-        <v>7.2991394996643066</v>
+        <v>10.744528770446777</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -2516,19 +2516,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>7.3628328740596771E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>3.6563079804182053E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>4.3557591438293457</v>
+        <v>9.5265035629272461</v>
       </c>
       <c r="F7" s="2">
-        <v>95.386741638183594</v>
+        <v>87.233963012695313</v>
       </c>
       <c r="G7" s="2">
-        <v>0.25751295685768127</v>
+        <v>3.1293373107910156</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2546,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>5.2623078227043152E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>59.075187683105469</v>
+        <v>15.828742027282715</v>
       </c>
       <c r="G8" s="2">
-        <v>40.924800872802734</v>
+        <v>84.118675231933594</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>48.845466613769531</v>
+        <v>43.546745300292969</v>
       </c>
       <c r="D9" s="2">
-        <v>0.50039637088775635</v>
+        <v>0.56078487634658813</v>
       </c>
       <c r="E9" s="2">
-        <v>0.10599686205387115</v>
+        <v>0.24099121987819672</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>50.535415649414063</v>
+        <v>55.650436401367188</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2632,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>95.870033264160156</v>
+        <v>93.783737182617188</v>
       </c>
       <c r="D16" s="1">
-        <v>3.970268726348877</v>
+        <v>5.4760494232177734</v>
       </c>
       <c r="E16" s="1">
-        <v>0.12964023649692535</v>
+        <v>0.61537295579910278</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>3.0066149309277534E-2</v>
+        <v>0.12478189170360565</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2656,13 +2656,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>21.259963989257813</v>
+        <v>25.16162109375</v>
       </c>
       <c r="D17" s="1">
-        <v>52.158676147460938</v>
+        <v>40.117000579833984</v>
       </c>
       <c r="E17" s="1">
-        <v>26.581371307373047</v>
+        <v>34.721366882324219</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2680,16 +2680,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>2.1021332740783691</v>
+        <v>2.6700599193572998</v>
       </c>
       <c r="D18" s="1">
-        <v>5.1862192153930664</v>
+        <v>9.710479736328125</v>
       </c>
       <c r="E18" s="1">
-        <v>88.049736022949219</v>
+        <v>79.90673828125</v>
       </c>
       <c r="F18" s="1">
-        <v>4.6619086265563965</v>
+        <v>7.7125892639160156</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -2704,19 +2704,19 @@
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>7.3938697576522827E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>3.6717209964990616E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>7.639437198638916</v>
+        <v>11.994767189025879</v>
       </c>
       <c r="F19" s="1">
-        <v>92.249404907226563</v>
+        <v>85.551177978515625</v>
       </c>
       <c r="G19" s="1">
-        <v>0.11115721613168716</v>
+        <v>2.3433842658996582</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2734,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.10541315376758575</v>
       </c>
       <c r="F20" s="1">
-        <v>68.28326416015625</v>
+        <v>18.3411865234375</v>
       </c>
       <c r="G20" s="1">
-        <v>31.716718673706055</v>
+        <v>81.5533447265625</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>33.14471435546875</v>
+        <v>28.583633422851563</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>7.9723484814167023E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>3.3893425017595291E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>66.855308532714844</v>
+        <v>71.302604675292969</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2820,13 +2820,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>96.808311462402344</v>
+        <v>95.063369750976563</v>
       </c>
       <c r="D28" s="1">
-        <v>3.1207661628723145</v>
+        <v>4.4284234046936035</v>
       </c>
       <c r="E28" s="1">
-        <v>7.0962071418762207E-2</v>
+        <v>0.38860979676246643</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>0.1195514127612114</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>21.097457885742188</v>
+        <v>30.959228515625</v>
       </c>
       <c r="D29" s="1">
-        <v>61.92340087890625</v>
+        <v>43.302734375</v>
       </c>
       <c r="E29" s="1">
-        <v>16.979141235351563</v>
+        <v>25.638998031616211</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>9.9035225808620453E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2868,16 +2868,16 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>3.2186031341552734</v>
+        <v>4.3208565711975098</v>
       </c>
       <c r="D30" s="1">
-        <v>5.2606201171875</v>
+        <v>10.940437316894531</v>
       </c>
       <c r="E30" s="1">
-        <v>89.382797241210938</v>
+        <v>79.439407348632813</v>
       </c>
       <c r="F30" s="1">
-        <v>2.1379759311676025</v>
+        <v>5.2991533279418945</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -2892,19 +2892,19 @@
         <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>0.13078489899635315</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>3.6682076752185822E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>10.108041763305664</v>
+        <v>15.121997833251953</v>
       </c>
       <c r="F31" s="1">
-        <v>89.891952514648438</v>
+        <v>83.156257629394531</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1.5542747974395752</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.10375753045082092</v>
       </c>
       <c r="F32" s="1">
-        <v>76.577316284179688</v>
+        <v>23.358264923095703</v>
       </c>
       <c r="G32" s="1">
-        <v>23.42268180847168</v>
+        <v>76.537834167480469</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2940,22 +2940,22 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>30.15843391418457</v>
+        <v>26.297674179077148</v>
       </c>
       <c r="D33" s="1">
-        <v>0.46274721622467041</v>
+        <v>0.30998045206069946</v>
       </c>
       <c r="E33" s="1">
-        <v>1.0085160732269287</v>
+        <v>0.68344885110855103</v>
       </c>
       <c r="F33" s="1">
-        <v>2.9896385967731476E-2</v>
+        <v>4.3440915644168854E-2</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>68.340309143066406</v>
+        <v>72.665390014648438</v>
       </c>
     </row>
   </sheetData>
